--- a/data/output/FV2404_FV2310/UTILMD/55145.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55145.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10958" uniqueCount="700">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10979" uniqueCount="700">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2302,6 +2302,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U554" totalsRowShown="0">
+  <autoFilter ref="A1:U554"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2591,7 +2621,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -27270,5 +27303,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55145.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55145.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13219" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13109" uniqueCount="1245">
   <si>
     <t>#</t>
   </si>
@@ -18600,44 +18600,42 @@
       <c r="V293" s="11"/>
     </row>
     <row r="294" spans="1:22">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-      <c r="J294" s="2" t="s">
+      <c r="C294" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="K294" s="2"/>
-      <c r="L294" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M294" s="2" t="s">
+      <c r="K294" s="5"/>
+      <c r="L294" s="7"/>
+      <c r="M294" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N294" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O294" s="2"/>
-      <c r="P294" s="2"/>
-      <c r="Q294" s="2"/>
-      <c r="R294" s="2"/>
-      <c r="S294" s="2"/>
-      <c r="T294" s="2"/>
-      <c r="U294" s="2" t="s">
+      <c r="N294" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O294" s="5"/>
+      <c r="P294" s="5"/>
+      <c r="Q294" s="5"/>
+      <c r="R294" s="5"/>
+      <c r="S294" s="5"/>
+      <c r="T294" s="5"/>
+      <c r="U294" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="V294" s="2"/>
+      <c r="V294" s="5"/>
     </row>
     <row r="295" spans="1:22">
       <c r="A295" s="2" t="s">
@@ -18771,9 +18769,7 @@
         <v>432</v>
       </c>
       <c r="K297" s="2"/>
-      <c r="L297" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L297" s="7"/>
       <c r="M297" s="2" t="s">
         <v>53</v>
       </c>
@@ -21418,46 +21414,44 @@
       <c r="V364" s="2"/>
     </row>
     <row r="365" spans="1:22">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="C365" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
-      <c r="F365" s="2"/>
-      <c r="G365" s="2"/>
-      <c r="H365" s="2"/>
-      <c r="I365" s="2"/>
-      <c r="J365" s="2" t="s">
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
+      <c r="J365" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K365" s="2" t="s">
+      <c r="K365" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="L365" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M365" s="2" t="s">
+      <c r="L365" s="7"/>
+      <c r="M365" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N365" s="2" t="s">
+      <c r="N365" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O365" s="2"/>
-      <c r="P365" s="2"/>
-      <c r="Q365" s="2"/>
-      <c r="R365" s="2"/>
-      <c r="S365" s="2"/>
-      <c r="T365" s="2"/>
-      <c r="U365" s="2" t="s">
+      <c r="O365" s="5"/>
+      <c r="P365" s="5"/>
+      <c r="Q365" s="5"/>
+      <c r="R365" s="5"/>
+      <c r="S365" s="5"/>
+      <c r="T365" s="5"/>
+      <c r="U365" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="V365" s="2" t="s">
+      <c r="V365" s="5" t="s">
         <v>536</v>
       </c>
     </row>
@@ -21728,44 +21722,42 @@
       </c>
     </row>
     <row r="371" spans="1:22">
-      <c r="A371" s="2" t="s">
+      <c r="A371" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D371" s="2"/>
-      <c r="E371" s="2"/>
-      <c r="F371" s="2"/>
-      <c r="G371" s="2"/>
-      <c r="H371" s="2"/>
-      <c r="I371" s="2"/>
-      <c r="J371" s="2" t="s">
+      <c r="C371" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D371" s="5"/>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="5"/>
+      <c r="J371" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="K371" s="2"/>
-      <c r="L371" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M371" s="2" t="s">
+      <c r="K371" s="5"/>
+      <c r="L371" s="7"/>
+      <c r="M371" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N371" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O371" s="2"/>
-      <c r="P371" s="2"/>
-      <c r="Q371" s="2"/>
-      <c r="R371" s="2"/>
-      <c r="S371" s="2"/>
-      <c r="T371" s="2"/>
-      <c r="U371" s="2" t="s">
+      <c r="N371" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O371" s="5"/>
+      <c r="P371" s="5"/>
+      <c r="Q371" s="5"/>
+      <c r="R371" s="5"/>
+      <c r="S371" s="5"/>
+      <c r="T371" s="5"/>
+      <c r="U371" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="V371" s="2"/>
+      <c r="V371" s="5"/>
     </row>
     <row r="372" spans="1:22">
       <c r="A372" s="2" t="s">
@@ -22003,9 +21995,7 @@
         <v>429</v>
       </c>
       <c r="K376" s="2"/>
-      <c r="L376" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L376" s="7"/>
       <c r="M376" s="2" t="s">
         <v>76</v>
       </c>
@@ -22059,9 +22049,7 @@
         <v>429</v>
       </c>
       <c r="K377" s="2"/>
-      <c r="L377" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L377" s="7"/>
       <c r="M377" s="2" t="s">
         <v>76</v>
       </c>
@@ -22115,9 +22103,7 @@
         <v>429</v>
       </c>
       <c r="K378" s="2"/>
-      <c r="L378" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L378" s="7"/>
       <c r="M378" s="2" t="s">
         <v>76</v>
       </c>
@@ -22144,46 +22130,44 @@
       <c r="V378" s="2"/>
     </row>
     <row r="379" spans="1:22">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="C379" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D379" s="2"/>
-      <c r="E379" s="2"/>
-      <c r="F379" s="2"/>
-      <c r="G379" s="2"/>
-      <c r="H379" s="2"/>
-      <c r="I379" s="2"/>
-      <c r="J379" s="2" t="s">
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="K379" s="2" t="s">
+      <c r="K379" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="L379" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M379" s="2" t="s">
+      <c r="L379" s="7"/>
+      <c r="M379" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N379" s="2" t="s">
+      <c r="N379" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O379" s="2"/>
-      <c r="P379" s="2"/>
-      <c r="Q379" s="2"/>
-      <c r="R379" s="2"/>
-      <c r="S379" s="2"/>
-      <c r="T379" s="2"/>
-      <c r="U379" s="2" t="s">
+      <c r="O379" s="5"/>
+      <c r="P379" s="5"/>
+      <c r="Q379" s="5"/>
+      <c r="R379" s="5"/>
+      <c r="S379" s="5"/>
+      <c r="T379" s="5"/>
+      <c r="U379" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="V379" s="2" t="s">
+      <c r="V379" s="5" t="s">
         <v>537</v>
       </c>
     </row>
@@ -22616,44 +22600,42 @@
       <c r="V387" s="2"/>
     </row>
     <row r="388" spans="1:22">
-      <c r="A388" s="2" t="s">
+      <c r="A388" s="5" t="s">
         <v>1078</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C388" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D388" s="2"/>
-      <c r="E388" s="2"/>
-      <c r="F388" s="2"/>
-      <c r="G388" s="2"/>
-      <c r="H388" s="2"/>
-      <c r="I388" s="2"/>
-      <c r="J388" s="2" t="s">
+      <c r="C388" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="5"/>
+      <c r="J388" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="K388" s="2"/>
-      <c r="L388" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M388" s="2" t="s">
+      <c r="K388" s="5"/>
+      <c r="L388" s="7"/>
+      <c r="M388" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N388" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O388" s="2"/>
-      <c r="P388" s="2"/>
-      <c r="Q388" s="2"/>
-      <c r="R388" s="2"/>
-      <c r="S388" s="2"/>
-      <c r="T388" s="2"/>
-      <c r="U388" s="2" t="s">
+      <c r="N388" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O388" s="5"/>
+      <c r="P388" s="5"/>
+      <c r="Q388" s="5"/>
+      <c r="R388" s="5"/>
+      <c r="S388" s="5"/>
+      <c r="T388" s="5"/>
+      <c r="U388" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="V388" s="2"/>
+      <c r="V388" s="5"/>
     </row>
     <row r="389" spans="1:22">
       <c r="A389" s="2" t="s">
@@ -22891,9 +22873,7 @@
         <v>429</v>
       </c>
       <c r="K393" s="2"/>
-      <c r="L393" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L393" s="7"/>
       <c r="M393" s="2" t="s">
         <v>80</v>
       </c>
@@ -22947,9 +22927,7 @@
         <v>429</v>
       </c>
       <c r="K394" s="2"/>
-      <c r="L394" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L394" s="7"/>
       <c r="M394" s="2" t="s">
         <v>80</v>
       </c>
@@ -23003,9 +22981,7 @@
         <v>429</v>
       </c>
       <c r="K395" s="2"/>
-      <c r="L395" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L395" s="7"/>
       <c r="M395" s="2" t="s">
         <v>80</v>
       </c>
@@ -23059,9 +23035,7 @@
         <v>429</v>
       </c>
       <c r="K396" s="2"/>
-      <c r="L396" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L396" s="7"/>
       <c r="M396" s="2" t="s">
         <v>80</v>
       </c>
@@ -23115,9 +23089,7 @@
         <v>429</v>
       </c>
       <c r="K397" s="2"/>
-      <c r="L397" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L397" s="7"/>
       <c r="M397" s="2" t="s">
         <v>80</v>
       </c>
@@ -23171,9 +23143,7 @@
         <v>429</v>
       </c>
       <c r="K398" s="2"/>
-      <c r="L398" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L398" s="7"/>
       <c r="M398" s="2" t="s">
         <v>80</v>
       </c>
@@ -23285,9 +23255,7 @@
         <v>480</v>
       </c>
       <c r="K400" s="2"/>
-      <c r="L400" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L400" s="7"/>
       <c r="M400" s="2" t="s">
         <v>80</v>
       </c>
@@ -23341,9 +23309,7 @@
         <v>480</v>
       </c>
       <c r="K401" s="2"/>
-      <c r="L401" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L401" s="7"/>
       <c r="M401" s="2" t="s">
         <v>80</v>
       </c>
@@ -23397,9 +23363,7 @@
         <v>481</v>
       </c>
       <c r="K402" s="2"/>
-      <c r="L402" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L402" s="7"/>
       <c r="M402" s="2" t="s">
         <v>80</v>
       </c>
@@ -23455,9 +23419,7 @@
       <c r="K403" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="L403" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L403" s="7"/>
       <c r="M403" s="2" t="s">
         <v>80</v>
       </c>
@@ -23779,9 +23741,7 @@
         <v>429</v>
       </c>
       <c r="K409" s="2"/>
-      <c r="L409" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L409" s="7"/>
       <c r="M409" s="2" t="s">
         <v>82</v>
       </c>
@@ -23835,9 +23795,7 @@
         <v>429</v>
       </c>
       <c r="K410" s="2"/>
-      <c r="L410" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L410" s="7"/>
       <c r="M410" s="2" t="s">
         <v>82</v>
       </c>
@@ -23995,9 +23953,7 @@
         <v>429</v>
       </c>
       <c r="K413" s="2"/>
-      <c r="L413" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L413" s="7"/>
       <c r="M413" s="2" t="s">
         <v>83</v>
       </c>
@@ -24213,9 +24169,7 @@
         <v>429</v>
       </c>
       <c r="K417" s="2"/>
-      <c r="L417" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L417" s="7"/>
       <c r="M417" s="2" t="s">
         <v>84</v>
       </c>
@@ -24242,46 +24196,44 @@
       <c r="V417" s="2"/>
     </row>
     <row r="418" spans="1:22">
-      <c r="A418" s="2" t="s">
+      <c r="A418" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C418" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-      <c r="H418" s="2"/>
-      <c r="I418" s="2"/>
-      <c r="J418" s="2" t="s">
+      <c r="C418" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
+      <c r="I418" s="5"/>
+      <c r="J418" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="K418" s="2" t="s">
+      <c r="K418" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="L418" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M418" s="2" t="s">
+      <c r="L418" s="7"/>
+      <c r="M418" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N418" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O418" s="2"/>
-      <c r="P418" s="2"/>
-      <c r="Q418" s="2"/>
-      <c r="R418" s="2"/>
-      <c r="S418" s="2"/>
-      <c r="T418" s="2"/>
-      <c r="U418" s="2" t="s">
+      <c r="N418" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O418" s="5"/>
+      <c r="P418" s="5"/>
+      <c r="Q418" s="5"/>
+      <c r="R418" s="5"/>
+      <c r="S418" s="5"/>
+      <c r="T418" s="5"/>
+      <c r="U418" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="V418" s="2" t="s">
+      <c r="V418" s="5" t="s">
         <v>541</v>
       </c>
     </row>
@@ -24521,9 +24473,7 @@
         <v>429</v>
       </c>
       <c r="K423" s="2"/>
-      <c r="L423" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L423" s="7"/>
       <c r="M423" s="2" t="s">
         <v>85</v>
       </c>
@@ -24550,46 +24500,44 @@
       <c r="V423" s="2"/>
     </row>
     <row r="424" spans="1:22">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="5" t="s">
         <v>1114</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="C424" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-      <c r="J424" s="2" t="s">
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
+      <c r="I424" s="5"/>
+      <c r="J424" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="K424" s="2" t="s">
+      <c r="K424" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="L424" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M424" s="2" t="s">
+      <c r="L424" s="7"/>
+      <c r="M424" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N424" s="2" t="s">
+      <c r="N424" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O424" s="2"/>
-      <c r="P424" s="2"/>
-      <c r="Q424" s="2"/>
-      <c r="R424" s="2"/>
-      <c r="S424" s="2"/>
-      <c r="T424" s="2"/>
-      <c r="U424" s="2" t="s">
+      <c r="O424" s="5"/>
+      <c r="P424" s="5"/>
+      <c r="Q424" s="5"/>
+      <c r="R424" s="5"/>
+      <c r="S424" s="5"/>
+      <c r="T424" s="5"/>
+      <c r="U424" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="V424" s="2" t="s">
+      <c r="V424" s="5" t="s">
         <v>542</v>
       </c>
     </row>
@@ -24835,9 +24783,7 @@
       <c r="K429" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="L429" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L429" s="7"/>
       <c r="M429" s="2" t="s">
         <v>87</v>
       </c>
@@ -25630,46 +25576,44 @@
       <c r="V443" s="2"/>
     </row>
     <row r="444" spans="1:22">
-      <c r="A444" s="2" t="s">
+      <c r="A444" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B444" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C444" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D444" s="2"/>
-      <c r="E444" s="2"/>
-      <c r="F444" s="2"/>
-      <c r="G444" s="2"/>
-      <c r="H444" s="2"/>
-      <c r="I444" s="2"/>
-      <c r="J444" s="2" t="s">
+      <c r="C444" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D444" s="5"/>
+      <c r="E444" s="5"/>
+      <c r="F444" s="5"/>
+      <c r="G444" s="5"/>
+      <c r="H444" s="5"/>
+      <c r="I444" s="5"/>
+      <c r="J444" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="K444" s="2" t="s">
+      <c r="K444" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="L444" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M444" s="2" t="s">
+      <c r="L444" s="7"/>
+      <c r="M444" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N444" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O444" s="2"/>
-      <c r="P444" s="2"/>
-      <c r="Q444" s="2"/>
-      <c r="R444" s="2"/>
-      <c r="S444" s="2"/>
-      <c r="T444" s="2"/>
-      <c r="U444" s="2" t="s">
+      <c r="N444" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O444" s="5"/>
+      <c r="P444" s="5"/>
+      <c r="Q444" s="5"/>
+      <c r="R444" s="5"/>
+      <c r="S444" s="5"/>
+      <c r="T444" s="5"/>
+      <c r="U444" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="V444" s="2" t="s">
+      <c r="V444" s="5" t="s">
         <v>548</v>
       </c>
     </row>
@@ -25909,9 +25853,7 @@
         <v>429</v>
       </c>
       <c r="K449" s="2"/>
-      <c r="L449" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L449" s="7"/>
       <c r="M449" s="2" t="s">
         <v>59</v>
       </c>
@@ -25965,9 +25907,7 @@
         <v>429</v>
       </c>
       <c r="K450" s="2"/>
-      <c r="L450" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L450" s="7"/>
       <c r="M450" s="2" t="s">
         <v>59</v>
       </c>
@@ -26021,9 +25961,7 @@
         <v>429</v>
       </c>
       <c r="K451" s="2"/>
-      <c r="L451" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L451" s="7"/>
       <c r="M451" s="2" t="s">
         <v>59</v>
       </c>
@@ -26050,46 +25988,44 @@
       <c r="V451" s="2"/>
     </row>
     <row r="452" spans="1:22">
-      <c r="A452" s="2" t="s">
+      <c r="A452" s="5" t="s">
         <v>1142</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B452" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D452" s="2"/>
-      <c r="E452" s="2"/>
-      <c r="F452" s="2"/>
-      <c r="G452" s="2"/>
-      <c r="H452" s="2"/>
-      <c r="I452" s="2"/>
-      <c r="J452" s="2" t="s">
+      <c r="C452" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+      <c r="G452" s="5"/>
+      <c r="H452" s="5"/>
+      <c r="I452" s="5"/>
+      <c r="J452" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="K452" s="2" t="s">
+      <c r="K452" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="L452" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M452" s="2" t="s">
+      <c r="L452" s="7"/>
+      <c r="M452" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N452" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O452" s="2"/>
-      <c r="P452" s="2"/>
-      <c r="Q452" s="2"/>
-      <c r="R452" s="2"/>
-      <c r="S452" s="2"/>
-      <c r="T452" s="2"/>
-      <c r="U452" s="2" t="s">
+      <c r="N452" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O452" s="5"/>
+      <c r="P452" s="5"/>
+      <c r="Q452" s="5"/>
+      <c r="R452" s="5"/>
+      <c r="S452" s="5"/>
+      <c r="T452" s="5"/>
+      <c r="U452" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="V452" s="2" t="s">
+      <c r="V452" s="5" t="s">
         <v>549</v>
       </c>
     </row>
@@ -26252,46 +26188,44 @@
       <c r="V455" s="2"/>
     </row>
     <row r="456" spans="1:22">
-      <c r="A456" s="2" t="s">
+      <c r="A456" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C456" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D456" s="2"/>
-      <c r="E456" s="2"/>
-      <c r="F456" s="2"/>
-      <c r="G456" s="2"/>
-      <c r="H456" s="2"/>
-      <c r="I456" s="2"/>
-      <c r="J456" s="2" t="s">
+      <c r="C456" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D456" s="5"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+      <c r="G456" s="5"/>
+      <c r="H456" s="5"/>
+      <c r="I456" s="5"/>
+      <c r="J456" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="K456" s="2" t="s">
+      <c r="K456" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="L456" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M456" s="2" t="s">
+      <c r="L456" s="7"/>
+      <c r="M456" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N456" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O456" s="2"/>
-      <c r="P456" s="2"/>
-      <c r="Q456" s="2"/>
-      <c r="R456" s="2"/>
-      <c r="S456" s="2"/>
-      <c r="T456" s="2"/>
-      <c r="U456" s="2" t="s">
+      <c r="N456" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O456" s="5"/>
+      <c r="P456" s="5"/>
+      <c r="Q456" s="5"/>
+      <c r="R456" s="5"/>
+      <c r="S456" s="5"/>
+      <c r="T456" s="5"/>
+      <c r="U456" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="V456" s="2" t="s">
+      <c r="V456" s="5" t="s">
         <v>528</v>
       </c>
     </row>
@@ -26454,46 +26388,44 @@
       <c r="V459" s="2"/>
     </row>
     <row r="460" spans="1:22">
-      <c r="A460" s="2" t="s">
+      <c r="A460" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C460" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D460" s="2"/>
-      <c r="E460" s="2"/>
-      <c r="F460" s="2"/>
-      <c r="G460" s="2"/>
-      <c r="H460" s="2"/>
-      <c r="I460" s="2"/>
-      <c r="J460" s="2" t="s">
+      <c r="C460" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D460" s="5"/>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+      <c r="G460" s="5"/>
+      <c r="H460" s="5"/>
+      <c r="I460" s="5"/>
+      <c r="J460" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="K460" s="2" t="s">
+      <c r="K460" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="L460" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M460" s="2" t="s">
+      <c r="L460" s="7"/>
+      <c r="M460" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N460" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O460" s="2"/>
-      <c r="P460" s="2"/>
-      <c r="Q460" s="2"/>
-      <c r="R460" s="2"/>
-      <c r="S460" s="2"/>
-      <c r="T460" s="2"/>
-      <c r="U460" s="2" t="s">
+      <c r="N460" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O460" s="5"/>
+      <c r="P460" s="5"/>
+      <c r="Q460" s="5"/>
+      <c r="R460" s="5"/>
+      <c r="S460" s="5"/>
+      <c r="T460" s="5"/>
+      <c r="U460" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="V460" s="2" t="s">
+      <c r="V460" s="5" t="s">
         <v>550</v>
       </c>
     </row>
@@ -26814,46 +26746,44 @@
       <c r="V466" s="2"/>
     </row>
     <row r="467" spans="1:22">
-      <c r="A467" s="2" t="s">
+      <c r="A467" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D467" s="2"/>
-      <c r="E467" s="2"/>
-      <c r="F467" s="2"/>
-      <c r="G467" s="2"/>
-      <c r="H467" s="2"/>
-      <c r="I467" s="2"/>
-      <c r="J467" s="2" t="s">
+      <c r="C467" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D467" s="5"/>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+      <c r="G467" s="5"/>
+      <c r="H467" s="5"/>
+      <c r="I467" s="5"/>
+      <c r="J467" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="K467" s="2" t="s">
+      <c r="K467" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="L467" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M467" s="2" t="s">
+      <c r="L467" s="7"/>
+      <c r="M467" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N467" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O467" s="2"/>
-      <c r="P467" s="2"/>
-      <c r="Q467" s="2"/>
-      <c r="R467" s="2"/>
-      <c r="S467" s="2"/>
-      <c r="T467" s="2"/>
-      <c r="U467" s="2" t="s">
+      <c r="N467" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O467" s="5"/>
+      <c r="P467" s="5"/>
+      <c r="Q467" s="5"/>
+      <c r="R467" s="5"/>
+      <c r="S467" s="5"/>
+      <c r="T467" s="5"/>
+      <c r="U467" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="V467" s="2" t="s">
+      <c r="V467" s="5" t="s">
         <v>551</v>
       </c>
     </row>
@@ -27016,46 +26946,44 @@
       <c r="V470" s="2"/>
     </row>
     <row r="471" spans="1:22">
-      <c r="A471" s="2" t="s">
+      <c r="A471" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B471" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C471" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D471" s="2"/>
-      <c r="E471" s="2"/>
-      <c r="F471" s="2"/>
-      <c r="G471" s="2"/>
-      <c r="H471" s="2"/>
-      <c r="I471" s="2"/>
-      <c r="J471" s="2" t="s">
+      <c r="C471" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D471" s="5"/>
+      <c r="E471" s="5"/>
+      <c r="F471" s="5"/>
+      <c r="G471" s="5"/>
+      <c r="H471" s="5"/>
+      <c r="I471" s="5"/>
+      <c r="J471" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="K471" s="2" t="s">
+      <c r="K471" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="L471" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M471" s="2" t="s">
+      <c r="L471" s="7"/>
+      <c r="M471" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N471" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O471" s="2"/>
-      <c r="P471" s="2"/>
-      <c r="Q471" s="2"/>
-      <c r="R471" s="2"/>
-      <c r="S471" s="2"/>
-      <c r="T471" s="2"/>
-      <c r="U471" s="2" t="s">
+      <c r="N471" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O471" s="5"/>
+      <c r="P471" s="5"/>
+      <c r="Q471" s="5"/>
+      <c r="R471" s="5"/>
+      <c r="S471" s="5"/>
+      <c r="T471" s="5"/>
+      <c r="U471" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="V471" s="2" t="s">
+      <c r="V471" s="5" t="s">
         <v>552</v>
       </c>
     </row>
@@ -27249,9 +27177,7 @@
         <v>429</v>
       </c>
       <c r="K475" s="2"/>
-      <c r="L475" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L475" s="7"/>
       <c r="M475" s="2" t="s">
         <v>94</v>
       </c>
@@ -27278,46 +27204,44 @@
       <c r="V475" s="2"/>
     </row>
     <row r="476" spans="1:22">
-      <c r="A476" s="2" t="s">
+      <c r="A476" s="5" t="s">
         <v>1166</v>
       </c>
-      <c r="B476" s="2" t="s">
+      <c r="B476" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C476" s="2" t="s">
+      <c r="C476" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D476" s="2"/>
-      <c r="E476" s="2"/>
-      <c r="F476" s="2"/>
-      <c r="G476" s="2"/>
-      <c r="H476" s="2"/>
-      <c r="I476" s="2"/>
-      <c r="J476" s="2" t="s">
+      <c r="D476" s="5"/>
+      <c r="E476" s="5"/>
+      <c r="F476" s="5"/>
+      <c r="G476" s="5"/>
+      <c r="H476" s="5"/>
+      <c r="I476" s="5"/>
+      <c r="J476" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K476" s="2" t="s">
+      <c r="K476" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="L476" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M476" s="2" t="s">
+      <c r="L476" s="7"/>
+      <c r="M476" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N476" s="2" t="s">
+      <c r="N476" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O476" s="2"/>
-      <c r="P476" s="2"/>
-      <c r="Q476" s="2"/>
-      <c r="R476" s="2"/>
-      <c r="S476" s="2"/>
-      <c r="T476" s="2"/>
-      <c r="U476" s="2" t="s">
+      <c r="O476" s="5"/>
+      <c r="P476" s="5"/>
+      <c r="Q476" s="5"/>
+      <c r="R476" s="5"/>
+      <c r="S476" s="5"/>
+      <c r="T476" s="5"/>
+      <c r="U476" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V476" s="2" t="s">
+      <c r="V476" s="5" t="s">
         <v>553</v>
       </c>
     </row>
@@ -27584,44 +27508,42 @@
       <c r="V481" s="2"/>
     </row>
     <row r="482" spans="1:22">
-      <c r="A482" s="2" t="s">
+      <c r="A482" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B482" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C482" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D482" s="2"/>
-      <c r="E482" s="2"/>
-      <c r="F482" s="2"/>
-      <c r="G482" s="2"/>
-      <c r="H482" s="2"/>
-      <c r="I482" s="2"/>
-      <c r="J482" s="2" t="s">
+      <c r="C482" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D482" s="5"/>
+      <c r="E482" s="5"/>
+      <c r="F482" s="5"/>
+      <c r="G482" s="5"/>
+      <c r="H482" s="5"/>
+      <c r="I482" s="5"/>
+      <c r="J482" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="K482" s="2"/>
-      <c r="L482" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M482" s="2" t="s">
+      <c r="K482" s="5"/>
+      <c r="L482" s="7"/>
+      <c r="M482" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N482" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O482" s="2"/>
-      <c r="P482" s="2"/>
-      <c r="Q482" s="2"/>
-      <c r="R482" s="2"/>
-      <c r="S482" s="2"/>
-      <c r="T482" s="2"/>
-      <c r="U482" s="2" t="s">
+      <c r="N482" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O482" s="5"/>
+      <c r="P482" s="5"/>
+      <c r="Q482" s="5"/>
+      <c r="R482" s="5"/>
+      <c r="S482" s="5"/>
+      <c r="T482" s="5"/>
+      <c r="U482" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="V482" s="2"/>
+      <c r="V482" s="5"/>
     </row>
     <row r="483" spans="1:22">
       <c r="A483" s="2" t="s">
@@ -28021,9 +27943,7 @@
         <v>429</v>
       </c>
       <c r="K490" s="2"/>
-      <c r="L490" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L490" s="7"/>
       <c r="M490" s="2" t="s">
         <v>97</v>
       </c>
@@ -28077,9 +27997,7 @@
         <v>429</v>
       </c>
       <c r="K491" s="2"/>
-      <c r="L491" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L491" s="7"/>
       <c r="M491" s="2" t="s">
         <v>97</v>
       </c>
@@ -28133,9 +28051,7 @@
         <v>429</v>
       </c>
       <c r="K492" s="2"/>
-      <c r="L492" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L492" s="7"/>
       <c r="M492" s="2" t="s">
         <v>97</v>
       </c>
@@ -28220,46 +28136,44 @@
       </c>
     </row>
     <row r="494" spans="1:22">
-      <c r="A494" s="2" t="s">
+      <c r="A494" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="B494" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C494" s="2" t="s">
+      <c r="C494" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D494" s="2"/>
-      <c r="E494" s="2"/>
-      <c r="F494" s="2"/>
-      <c r="G494" s="2"/>
-      <c r="H494" s="2"/>
-      <c r="I494" s="2"/>
-      <c r="J494" s="2" t="s">
+      <c r="D494" s="5"/>
+      <c r="E494" s="5"/>
+      <c r="F494" s="5"/>
+      <c r="G494" s="5"/>
+      <c r="H494" s="5"/>
+      <c r="I494" s="5"/>
+      <c r="J494" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K494" s="2" t="s">
+      <c r="K494" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="L494" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M494" s="2" t="s">
+      <c r="L494" s="7"/>
+      <c r="M494" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N494" s="2" t="s">
+      <c r="N494" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O494" s="2"/>
-      <c r="P494" s="2"/>
-      <c r="Q494" s="2"/>
-      <c r="R494" s="2"/>
-      <c r="S494" s="2"/>
-      <c r="T494" s="2"/>
-      <c r="U494" s="2" t="s">
+      <c r="O494" s="5"/>
+      <c r="P494" s="5"/>
+      <c r="Q494" s="5"/>
+      <c r="R494" s="5"/>
+      <c r="S494" s="5"/>
+      <c r="T494" s="5"/>
+      <c r="U494" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="V494" s="2" t="s">
+      <c r="V494" s="5" t="s">
         <v>556</v>
       </c>
     </row>
@@ -28526,44 +28440,42 @@
       <c r="V499" s="2"/>
     </row>
     <row r="500" spans="1:22">
-      <c r="A500" s="2" t="s">
+      <c r="A500" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B500" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C500" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D500" s="2"/>
-      <c r="E500" s="2"/>
-      <c r="F500" s="2"/>
-      <c r="G500" s="2"/>
-      <c r="H500" s="2"/>
-      <c r="I500" s="2"/>
-      <c r="J500" s="2" t="s">
+      <c r="C500" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D500" s="5"/>
+      <c r="E500" s="5"/>
+      <c r="F500" s="5"/>
+      <c r="G500" s="5"/>
+      <c r="H500" s="5"/>
+      <c r="I500" s="5"/>
+      <c r="J500" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="K500" s="2"/>
-      <c r="L500" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M500" s="2" t="s">
+      <c r="K500" s="5"/>
+      <c r="L500" s="7"/>
+      <c r="M500" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N500" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O500" s="2"/>
-      <c r="P500" s="2"/>
-      <c r="Q500" s="2"/>
-      <c r="R500" s="2"/>
-      <c r="S500" s="2"/>
-      <c r="T500" s="2"/>
-      <c r="U500" s="2" t="s">
+      <c r="N500" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O500" s="5"/>
+      <c r="P500" s="5"/>
+      <c r="Q500" s="5"/>
+      <c r="R500" s="5"/>
+      <c r="S500" s="5"/>
+      <c r="T500" s="5"/>
+      <c r="U500" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="V500" s="2"/>
+      <c r="V500" s="5"/>
     </row>
     <row r="501" spans="1:22">
       <c r="A501" s="2" t="s">
@@ -28959,9 +28871,7 @@
         <v>429</v>
       </c>
       <c r="K508" s="2"/>
-      <c r="L508" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L508" s="7"/>
       <c r="M508" s="2" t="s">
         <v>100</v>
       </c>
@@ -29015,9 +28925,7 @@
         <v>429</v>
       </c>
       <c r="K509" s="2"/>
-      <c r="L509" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L509" s="7"/>
       <c r="M509" s="2" t="s">
         <v>100</v>
       </c>
@@ -29071,9 +28979,7 @@
         <v>429</v>
       </c>
       <c r="K510" s="2"/>
-      <c r="L510" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L510" s="7"/>
       <c r="M510" s="2" t="s">
         <v>100</v>
       </c>
@@ -29127,9 +29033,7 @@
         <v>429</v>
       </c>
       <c r="K511" s="2"/>
-      <c r="L511" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L511" s="7"/>
       <c r="M511" s="2" t="s">
         <v>100</v>
       </c>
@@ -29183,9 +29087,7 @@
         <v>429</v>
       </c>
       <c r="K512" s="2"/>
-      <c r="L512" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L512" s="7"/>
       <c r="M512" s="2" t="s">
         <v>100</v>
       </c>
@@ -29212,46 +29114,44 @@
       <c r="V512" s="2"/>
     </row>
     <row r="513" spans="1:22">
-      <c r="A513" s="2" t="s">
+      <c r="A513" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="B513" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C513" s="2" t="s">
+      <c r="C513" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D513" s="2"/>
-      <c r="E513" s="2"/>
-      <c r="F513" s="2"/>
-      <c r="G513" s="2"/>
-      <c r="H513" s="2"/>
-      <c r="I513" s="2"/>
-      <c r="J513" s="2" t="s">
+      <c r="D513" s="5"/>
+      <c r="E513" s="5"/>
+      <c r="F513" s="5"/>
+      <c r="G513" s="5"/>
+      <c r="H513" s="5"/>
+      <c r="I513" s="5"/>
+      <c r="J513" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K513" s="2" t="s">
+      <c r="K513" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="L513" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M513" s="2" t="s">
+      <c r="L513" s="7"/>
+      <c r="M513" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N513" s="2" t="s">
+      <c r="N513" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O513" s="2"/>
-      <c r="P513" s="2"/>
-      <c r="Q513" s="2"/>
-      <c r="R513" s="2"/>
-      <c r="S513" s="2"/>
-      <c r="T513" s="2"/>
-      <c r="U513" s="2" t="s">
+      <c r="O513" s="5"/>
+      <c r="P513" s="5"/>
+      <c r="Q513" s="5"/>
+      <c r="R513" s="5"/>
+      <c r="S513" s="5"/>
+      <c r="T513" s="5"/>
+      <c r="U513" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V513" s="2" t="s">
+      <c r="V513" s="5" t="s">
         <v>553</v>
       </c>
     </row>
@@ -29518,44 +29418,42 @@
       <c r="V518" s="2"/>
     </row>
     <row r="519" spans="1:22">
-      <c r="A519" s="2" t="s">
+      <c r="A519" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="B519" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C519" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D519" s="2"/>
-      <c r="E519" s="2"/>
-      <c r="F519" s="2"/>
-      <c r="G519" s="2"/>
-      <c r="H519" s="2"/>
-      <c r="I519" s="2"/>
-      <c r="J519" s="2" t="s">
+      <c r="C519" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D519" s="5"/>
+      <c r="E519" s="5"/>
+      <c r="F519" s="5"/>
+      <c r="G519" s="5"/>
+      <c r="H519" s="5"/>
+      <c r="I519" s="5"/>
+      <c r="J519" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="K519" s="2"/>
-      <c r="L519" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M519" s="2" t="s">
+      <c r="K519" s="5"/>
+      <c r="L519" s="7"/>
+      <c r="M519" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="N519" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O519" s="2"/>
-      <c r="P519" s="2"/>
-      <c r="Q519" s="2"/>
-      <c r="R519" s="2"/>
-      <c r="S519" s="2"/>
-      <c r="T519" s="2"/>
-      <c r="U519" s="2" t="s">
+      <c r="N519" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O519" s="5"/>
+      <c r="P519" s="5"/>
+      <c r="Q519" s="5"/>
+      <c r="R519" s="5"/>
+      <c r="S519" s="5"/>
+      <c r="T519" s="5"/>
+      <c r="U519" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="V519" s="2"/>
+      <c r="V519" s="5"/>
     </row>
     <row r="520" spans="1:22">
       <c r="A520" s="2" t="s">
@@ -29951,9 +29849,7 @@
         <v>429</v>
       </c>
       <c r="K527" s="2"/>
-      <c r="L527" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L527" s="7"/>
       <c r="M527" s="2" t="s">
         <v>103</v>
       </c>
@@ -30147,9 +30043,7 @@
         <v>428</v>
       </c>
       <c r="K531" s="2"/>
-      <c r="L531" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="L531" s="7"/>
       <c r="M531" s="2" t="s">
         <v>104</v>
       </c>
@@ -30434,46 +30328,44 @@
       </c>
     </row>
     <row r="537" spans="1:22">
-      <c r="A537" s="2" t="s">
+      <c r="A537" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B537" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C537" s="2" t="s">
+      <c r="C537" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D537" s="2"/>
-      <c r="E537" s="2"/>
-      <c r="F537" s="2"/>
-      <c r="G537" s="2"/>
-      <c r="H537" s="2"/>
-      <c r="I537" s="2"/>
-      <c r="J537" s="2" t="s">
+      <c r="D537" s="5"/>
+      <c r="E537" s="5"/>
+      <c r="F537" s="5"/>
+      <c r="G537" s="5"/>
+      <c r="H537" s="5"/>
+      <c r="I537" s="5"/>
+      <c r="J537" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="K537" s="2" t="s">
+      <c r="K537" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="L537" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M537" s="2" t="s">
+      <c r="L537" s="7"/>
+      <c r="M537" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N537" s="2" t="s">
+      <c r="N537" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O537" s="2"/>
-      <c r="P537" s="2"/>
-      <c r="Q537" s="2"/>
-      <c r="R537" s="2"/>
-      <c r="S537" s="2"/>
-      <c r="T537" s="2"/>
-      <c r="U537" s="2" t="s">
+      <c r="O537" s="5"/>
+      <c r="P537" s="5"/>
+      <c r="Q537" s="5"/>
+      <c r="R537" s="5"/>
+      <c r="S537" s="5"/>
+      <c r="T537" s="5"/>
+      <c r="U537" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="V537" s="2" t="s">
+      <c r="V537" s="5" t="s">
         <v>559</v>
       </c>
     </row>
@@ -30902,44 +30794,42 @@
       </c>
     </row>
     <row r="546" spans="1:22">
-      <c r="A546" s="2" t="s">
+      <c r="A546" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B546" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C546" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D546" s="2"/>
-      <c r="E546" s="2"/>
-      <c r="F546" s="2"/>
-      <c r="G546" s="2"/>
-      <c r="H546" s="2"/>
-      <c r="I546" s="2"/>
-      <c r="J546" s="2" t="s">
+      <c r="C546" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D546" s="5"/>
+      <c r="E546" s="5"/>
+      <c r="F546" s="5"/>
+      <c r="G546" s="5"/>
+      <c r="H546" s="5"/>
+      <c r="I546" s="5"/>
+      <c r="J546" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="K546" s="2"/>
-      <c r="L546" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M546" s="2" t="s">
+      <c r="K546" s="5"/>
+      <c r="L546" s="7"/>
+      <c r="M546" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N546" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O546" s="2"/>
-      <c r="P546" s="2"/>
-      <c r="Q546" s="2"/>
-      <c r="R546" s="2"/>
-      <c r="S546" s="2"/>
-      <c r="T546" s="2"/>
-      <c r="U546" s="2" t="s">
+      <c r="N546" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O546" s="5"/>
+      <c r="P546" s="5"/>
+      <c r="Q546" s="5"/>
+      <c r="R546" s="5"/>
+      <c r="S546" s="5"/>
+      <c r="T546" s="5"/>
+      <c r="U546" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="V546" s="2"/>
+      <c r="V546" s="5"/>
     </row>
     <row r="547" spans="1:22">
       <c r="A547" s="2" t="s">
